--- a/kinematyka5.xlsx
+++ b/kinematyka5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wutwaw-my.sharepoint.com/personal/01142312_pw_edu_pl/Documents/PW/Semy/Sem6/DUW - Dynamika Układów Wieloczłonowych/1. Zadanie domowe - Matlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="239" documentId="11_AD4DADEC636C813AC809E43EA81C70E85BDEDD89" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6C3EA6D6-4CB5-4479-AABF-AE8D0760C46E}"/>
+  <xr:revisionPtr revIDLastSave="242" documentId="11_AD4DADEC636C813AC809E43EA81C70E85BDEDD89" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{ADFF85C3-504C-4368-B4C0-481DF2A22AC3}"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="2415" windowWidth="14700" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6465" yWindow="2520" windowWidth="14700" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Człony" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -798,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD9A6F0-416E-4148-B68B-4325E45C3A39}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/kinematyka5.xlsx
+++ b/kinematyka5.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="242" documentId="11_AD4DADEC636C813AC809E43EA81C70E85BDEDD89" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{ADFF85C3-504C-4368-B4C0-481DF2A22AC3}"/>
   <bookViews>
-    <workbookView xWindow="6465" yWindow="2520" windowWidth="14700" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Człony" sheetId="1" r:id="rId1"/>
@@ -470,7 +470,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,7 +799,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/kinematyka5.xlsx
+++ b/kinematyka5.xlsx
@@ -470,7 +470,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,7 +799,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
